--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1590948.713304394</v>
+        <v>1676728.115257303</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.204079715</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5854880.612680143</v>
+        <v>6301259.366011039</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -677,7 +679,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>204.4734622315567</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>64.89418287192164</v>
       </c>
     </row>
     <row r="3">
@@ -865,16 +867,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>140.4342819615944</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -899,7 +901,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>204.6657358189418</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>29.74512849779529</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>139.9514671241872</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1145,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>30.96465002000427</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>304.4433815539398</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1293,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>109.142675762685</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1345,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>59.41244209702465</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1370,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>196.9243316549262</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1379,13 +1381,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>409.4993862590579</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>235.4893695038533</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>339.1288413450118</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1619,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>354.5522175742595</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>43.77283765622107</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,10 +1824,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>187.5234134555186</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1853,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>155.2022955251577</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482703</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>136.0564930766996</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.9257490316895</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,10 +2535,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>266.1592746401468</v>
+        <v>166.3197703738366</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2722,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830552</v>
       </c>
       <c r="U28" t="n">
-        <v>151.2896809263502</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2795,7 +2797,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2950,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>27.18442331492806</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2998,10 +3000,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>13.99728392830552</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.13424985736003</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>153.2006427344284</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>228.2076316946701</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.9505762815748</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3743,10 +3745,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>145.4261460119205</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>347.4852008242925</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>156.0275385056715</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3977,25 +3979,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>164.391101121962</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>19.66484339937357</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.139541480023094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>866.1045910388293</v>
+        <v>1674.602188492498</v>
       </c>
       <c r="C2" t="n">
-        <v>832.0025222626566</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D2" t="n">
-        <v>800.1331414775052</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E2" t="n">
-        <v>770.3988006762045</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4331,25 +4333,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L2" t="n">
         <v>714.2412710704069</v>
       </c>
       <c r="M2" t="n">
-        <v>1375.081325612185</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N2" t="n">
-        <v>2035.921380153963</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4358,22 +4360,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2379.870101876319</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.647799193335</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.647799193335</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W2" t="n">
-        <v>1715.792344604369</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X2" t="n">
-        <v>1296.64988118368</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y2" t="n">
-        <v>888.3637574833331</v>
+        <v>1696.861354937001</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K3" t="n">
-        <v>404.0232146552985</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L3" t="n">
-        <v>404.0232146552985</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M3" t="n">
-        <v>404.0232146552985</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="N3" t="n">
-        <v>404.0232146552985</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O3" t="n">
-        <v>404.0232146552985</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4513,13 +4515,13 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2347.54882637258</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U4" t="n">
-        <v>2069.115825625685</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
         <v>2069.115825625685</v>
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>981.4316298953097</v>
+        <v>752.2549115535338</v>
       </c>
       <c r="C5" t="n">
-        <v>543.2891570787331</v>
+        <v>314.1124387369571</v>
       </c>
       <c r="D5" t="n">
         <v>107.3793722531775</v>
@@ -4568,22 +4570,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>1179.226652594814</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
         <v>2500.906761678371</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2640.01524209022</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2640.01524209022</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>2640.01524209022</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>2235.159787501254</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.017324080564</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.731200380218</v>
+        <v>1178.554482038442</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4646,28 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>394.9608689238808</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>394.9608689238808</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4750,19 +4752,19 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V7" t="n">
-        <v>1823.724070959097</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1551.697666545389</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
         <v>1551.697666545389</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.095648603258</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4805,25 +4807,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
         <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704069</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.081325612185</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P8" t="n">
-        <v>2035.921380153963</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2582.420166112558</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4835,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>2638.783402168797</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X8" t="n">
-        <v>2623.681342788512</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.395219088166</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>73.33088177303154</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>397.8892067392439</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q9" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>959.8976656237347</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.8976656237347</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252574</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759947</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>447.5546150377509</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635786</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539531</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862846</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2183.509622238479</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1896.55411410891</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1624.527709695201</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1379.135955028614</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1151.716284342722</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1552.591825232937</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>1353.67835891483</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D11" t="n">
-        <v>917.7685740892747</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E11" t="n">
-        <v>483.9938292475699</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677762</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677762</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677762</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K11" t="n">
-        <v>750.6905954094007</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L11" t="n">
-        <v>1445.254791162024</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.254791162024</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N11" t="n">
-        <v>1445.254791162024</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>2139.818986914646</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>2806.319982838881</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838881</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838881</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838881</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.319982838881</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>2806.319982838881</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>2387.177519418192</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>1978.891395717845</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K12" t="n">
-        <v>406.7483977834476</v>
+        <v>396.5477556863889</v>
       </c>
       <c r="L12" t="n">
-        <v>406.7483977834476</v>
+        <v>396.5477556863889</v>
       </c>
       <c r="M12" t="n">
-        <v>406.7483977834476</v>
+        <v>396.5477556863889</v>
       </c>
       <c r="N12" t="n">
-        <v>406.7483977834476</v>
+        <v>396.5477556863889</v>
       </c>
       <c r="O12" t="n">
-        <v>406.7483977834476</v>
+        <v>396.5477556863889</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>965.4265565193963</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>792.8648450026212</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>626.9868522041439</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041439</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2426.906563138033</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2189.03851313414</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V13" t="n">
-        <v>1902.083005004571</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W13" t="n">
-        <v>1630.056600590863</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X13" t="n">
-        <v>1384.664845924275</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y13" t="n">
-        <v>1157.245175238383</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2387.177519418192</v>
+        <v>2188.014873871656</v>
       </c>
       <c r="C14" t="n">
-        <v>2044.62313422121</v>
+        <v>1749.872401055079</v>
       </c>
       <c r="D14" t="n">
-        <v>1608.713349395655</v>
+        <v>1313.962616229524</v>
       </c>
       <c r="E14" t="n">
-        <v>1174.93860455395</v>
+        <v>880.1878713878186</v>
       </c>
       <c r="F14" t="n">
-        <v>747.0711749631575</v>
+        <v>452.3204417970264</v>
       </c>
       <c r="G14" t="n">
-        <v>345.6733435864214</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677762</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K14" t="n">
-        <v>750.6905954094007</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L14" t="n">
-        <v>1445.254791162024</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.254791162024</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>1445.254791162024</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>2139.818986914646</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>2806.319982838881</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838881</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838881</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838881</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.319982838881</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X14" t="n">
-        <v>2387.177519418192</v>
+        <v>3022.60056805691</v>
       </c>
       <c r="Y14" t="n">
-        <v>2387.177519418192</v>
+        <v>2614.314444356563</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677762</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>924.8616057763934</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>752.2998942596183</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>752.2998942596183</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E16" t="n">
-        <v>582.5418905103556</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F16" t="n">
-        <v>405.8348364721119</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G16" t="n">
-        <v>240.2435614979395</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>100.3413871883141</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2672.786009559577</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2426.906563138033</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2148.473562391138</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1861.518054261568</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="W16" t="n">
-        <v>1589.49164984786</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X16" t="n">
-        <v>1344.099895181272</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>1116.680224495381</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
         <v>793.2056155771595</v>
@@ -5516,49 +5518,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>3135.398407382223</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>4115.578073952529</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272077</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5829,25 +5831,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>239.691641358355</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.913654892426</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6066,25 +6068,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>210.9600532992111</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>210.9600532992111</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>210.9600532992111</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>210.9600532992111</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>210.9600532992111</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1116.062450089081</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915.9519976190925</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C28" t="n">
-        <v>743.3902861023174</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D28" t="n">
-        <v>577.5122933038401</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E28" t="n">
-        <v>407.7542895545774</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U28" t="n">
-        <v>2139.563954233837</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V28" t="n">
-        <v>1852.608446104267</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W28" t="n">
-        <v>1580.582041690559</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X28" t="n">
-        <v>1335.190287023971</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y28" t="n">
-        <v>1107.77061633808</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D29" t="n">
         <v>1654.847790009657</v>
@@ -6449,64 +6451,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>380.3945678471324</v>
+        <v>1039.550377927473</v>
       </c>
       <c r="L29" t="n">
-        <v>1455.454534099992</v>
+        <v>2114.610344180332</v>
       </c>
       <c r="M29" t="n">
-        <v>2612.502369310543</v>
+        <v>3271.658179390883</v>
       </c>
       <c r="N29" t="n">
-        <v>3738.23335274699</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1036.216302815308</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="T31" t="n">
-        <v>2538.261260176947</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U31" t="n">
-        <v>2259.828259430053</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.872751300483</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W31" t="n">
-        <v>1700.846346886775</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.454592220187</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y31" t="n">
-        <v>1228.034921534295</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="32">
@@ -6710,10 +6712,10 @@
         <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>3304.552472135278</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1481.601550212351</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1254.181879526459</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6938,22 +6940,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -7011,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7175,49 +7177,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7345,37 +7347,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2259.828259430057</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1092.659051657336</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1323.534133440883</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>885.391660624306</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>885.391660624306</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>885.391660624306</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>457.5242310335137</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677761</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677761</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677761</v>
+        <v>109.4009987501524</v>
       </c>
       <c r="K41" t="n">
-        <v>176.1286096224169</v>
+        <v>943.7512907083303</v>
       </c>
       <c r="L41" t="n">
-        <v>870.6928053750396</v>
+        <v>2018.81125696119</v>
       </c>
       <c r="M41" t="n">
-        <v>870.6928053750396</v>
+        <v>2018.81125696119</v>
       </c>
       <c r="N41" t="n">
-        <v>870.6928053750396</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="O41" t="n">
-        <v>1565.257001127663</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880285</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.31998283888</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.31998283888</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.668109022717</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.668109022717</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U41" t="n">
-        <v>2463.445806339734</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V41" t="n">
-        <v>2100.828856273561</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W41" t="n">
-        <v>1749.83370392579</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X41" t="n">
-        <v>1749.83370392579</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1749.83370392579</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056513</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K42" t="n">
-        <v>330.2377696303409</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L42" t="n">
-        <v>330.2377696303409</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="M42" t="n">
-        <v>1024.801965382964</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="N42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="O42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.97282907268</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="C43" t="n">
-        <v>918.4111175559048</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="D43" t="n">
-        <v>752.5331247574275</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E43" t="n">
-        <v>594.9295505092745</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F43" t="n">
-        <v>418.2224964710306</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G43" t="n">
-        <v>418.2224964710306</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>278.3203221614052</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
-        <v>189.6603729360805</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>276.2400581007703</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>550.9985126719059</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>969.208394439867</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1428.69226162078</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1870.951064778425</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2290.620314004206</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2638.127207974548</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2806.31998283888</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2806.31998283888</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2647.078614136877</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2401.199167715332</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2122.766166968437</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1835.810658838868</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1563.784254425159</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.392499758572</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1090.97282907268</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.1780169516887</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C44" t="n">
-        <v>56.12639965677761</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D44" t="n">
-        <v>56.12639965677761</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>56.12639965677761</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677761</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677761</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677761</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677761</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>722.6273955810115</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1417.191591333634</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>2111.755787086257</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="N44" t="n">
-        <v>2806.31998283888</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="O44" t="n">
-        <v>2806.31998283888</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P44" t="n">
-        <v>2806.31998283888</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.31998283888</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.31998283888</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022717</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895756</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.378579212773</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>1880.761629146599</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>1475.906174557633</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>1056.763711136943</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>648.4775874365965</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056513</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677761</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.418244693367</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.2024157797618</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>571.6407042629868</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>405.7627114645095</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>236.0047077152468</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>59.29765367700296</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>59.29765367700296</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>59.29765367700296</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677761</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.464539392603</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="P2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M2" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N2" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O2" t="n">
-        <v>640.5448952297625</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8216,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>30.03100411261585</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
@@ -8234,7 +8236,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>318.6828073078734</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8392,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078568</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>88.52591951401018</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>673.2333292163985</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>305.8360165328639</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>673.2333292163985</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>687.6461816022032</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,28 +9166,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1135.07808979839</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,19 +9725,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>137.2055943867781</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>280.9431591680331</v>
+        <v>507.1059092967429</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10127,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,13 +10360,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>137.2055943867781</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>19.94667551886812</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,7 +10606,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10823,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>19.94667551886812</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>15.78878730434212</v>
       </c>
       <c r="K41" t="n">
-        <v>121.2143535006457</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.57999570972</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,16 +11141,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>276.880171690468</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M42" t="n">
-        <v>701.57999570972</v>
+        <v>715.8552653209144</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097199</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>673.2333292163979</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>701.57999570972</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>713.2395913281089</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>236.8367164334847</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>14.08936903582639</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>40.15930123557243</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>94.63220674339908</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>42.8316354887092</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.00051207685034</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>96.5625395927552</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>120.446375214268</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.446659489829642</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>3.146865729424576</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.4233680290237</v>
       </c>
       <c r="U28" t="n">
-        <v>124.3589898130755</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>55.87832135360372</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>88.194897697458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>111.2039336442328</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>53.32169921878449</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>12.03288520609865</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>269.3699469664489</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>84.63380825304831</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>366503.9672511198</v>
+        <v>519276.6271455002</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>366503.9672511198</v>
+        <v>519276.6271455002</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>553735.3304967724</v>
+        <v>553735.3304967725</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>366503.9672511197</v>
+        <v>519276.6271455002</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>366503.9672511197</v>
+        <v>519276.6271455002</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26319,22 @@
         <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178065</v>
       </c>
       <c r="E2" t="n">
-        <v>261535.6797661556</v>
+        <v>370553.603241412</v>
       </c>
       <c r="F2" t="n">
-        <v>261535.6797661556</v>
+        <v>370553.603241412</v>
       </c>
       <c r="G2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="I2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="J2" t="n">
         <v>395143.1881030142</v>
@@ -26341,19 +26343,19 @@
         <v>395143.1881030142</v>
       </c>
       <c r="L2" t="n">
+        <v>395143.1881030141</v>
+      </c>
+      <c r="M2" t="n">
         <v>395143.1881030142</v>
       </c>
-      <c r="M2" t="n">
-        <v>395143.1881030143</v>
-      </c>
       <c r="N2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="O2" t="n">
-        <v>261535.6797661555</v>
+        <v>370553.603241412</v>
       </c>
       <c r="P2" t="n">
-        <v>261535.6797661555</v>
+        <v>370553.603241412</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045615</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340753</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26426,10 @@
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="F4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26442,7 +26444,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="K4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="L4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="P4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.31084165931</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915097</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915097</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26559.03346001603</v>
+        <v>-26559.03346001601</v>
       </c>
       <c r="C6" t="n">
-        <v>197140.6651240287</v>
+        <v>197140.6651240288</v>
       </c>
       <c r="D6" t="n">
-        <v>197140.6651240287</v>
+        <v>197140.6651240289</v>
       </c>
       <c r="E6" t="n">
-        <v>190385.2000367487</v>
+        <v>122661.2633456759</v>
       </c>
       <c r="F6" t="n">
-        <v>200556.1966372049</v>
+        <v>273327.0169174239</v>
       </c>
       <c r="G6" t="n">
-        <v>131681.3938009097</v>
+        <v>260651.0615744112</v>
       </c>
       <c r="H6" t="n">
-        <v>289740.8707470191</v>
+        <v>289740.870747019</v>
       </c>
       <c r="I6" t="n">
-        <v>289740.8707470191</v>
+        <v>289740.870747019</v>
       </c>
       <c r="J6" t="n">
         <v>115089.5220293129</v>
       </c>
       <c r="K6" t="n">
-        <v>289740.870747019</v>
+        <v>289740.8707470191</v>
       </c>
       <c r="L6" t="n">
         <v>289740.870747019</v>
       </c>
       <c r="M6" t="n">
-        <v>281251.7890436783</v>
+        <v>163989.7824113282</v>
       </c>
       <c r="N6" t="n">
-        <v>289740.8707470191</v>
+        <v>289740.870747019</v>
       </c>
       <c r="O6" t="n">
-        <v>200556.1966372048</v>
+        <v>273327.0169174239</v>
       </c>
       <c r="P6" t="n">
-        <v>200556.1966372049</v>
+        <v>273327.0169174239</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.57999570972</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.57999570972</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750251</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750251</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.39309262413508</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>339.3090795914214</v>
       </c>
     </row>
     <row r="3">
@@ -27585,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>102.9863699957349</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>226.8849511583581</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27667,10 +27669,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>188.1214263578965</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>144.1344859240867</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>369.8422500230727</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>110.5076572325426</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>55.07653710780755</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>216.236228642401</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28573,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28779,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="P2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M2" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N2" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O2" t="n">
-        <v>640.5448952297625</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34936,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,7 +34947,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>30.03100411261585</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
@@ -34954,7 +34956,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,13 +35014,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>318.6828073078734</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35112,7 +35114,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078568</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>88.52591951401018</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35264,16 +35266,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,13 +35424,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>673.2333292163985</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>305.8360165328639</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,13 +35661,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>673.2333292163985</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>687.6461816022032</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35884,28 +35886,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1135.07808979839</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>137.2055943867781</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36613,10 +36615,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>280.9431591680331</v>
+        <v>507.1059092967429</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36847,13 +36849,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,13 +37080,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>137.2055943867781</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37306,7 +37308,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>19.94667551886812</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37324,7 +37326,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37543,7 +37545,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>19.94667551886812</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37715,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>15.78878730434212</v>
       </c>
       <c r="K41" t="n">
-        <v>121.2143535006457</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.57999570972</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>276.880171690468</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M42" t="n">
-        <v>701.57999570972</v>
+        <v>715.8552653209144</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097199</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>673.2333292163979</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>701.57999570972</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>713.2395913281089</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1676728.115257303</v>
+        <v>1676122.027628406</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074004</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.204079715</v>
+        <v>606553.2040797168</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6301259.366011039</v>
+        <v>6301259.366011038</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>350.3346115241044</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>64.89418287192164</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,7 +879,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>264.173987340649</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>418.2942882004971</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>204.6657358189418</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1110,10 +1110,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>192.5216342577807</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1141,19 +1141,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>304.4433815539398</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>109.142675762685</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1381,10 +1381,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>409.4993862590579</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>145.83876749105</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>111.2693566202706</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>354.5522175742595</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>92.21956428897897</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>187.5234134555186</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630718</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>136.0564930766996</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2535,10 +2535,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>166.3197703738366</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>3.423392126084468</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>13.99728392830552</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2797,7 +2797,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>13.99728392830552</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3432,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>50.30825486907106</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>228.2076316946701</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3751,10 +3751,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>409.0867647799247</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>145.4261460119205</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>137.8834167598887</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3948,10 +3948,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>19.66484339937357</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>3.065195208554282</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.05677735225751</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1674.602188492498</v>
+        <v>462.0641869984253</v>
       </c>
       <c r="C2" t="n">
-        <v>1640.500119716325</v>
+        <v>427.9621182222527</v>
       </c>
       <c r="D2" t="n">
-        <v>1204.590334890769</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E2" t="n">
-        <v>770.8155900490646</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K2" t="n">
-        <v>714.2412710704069</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L2" t="n">
-        <v>714.2412710704069</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M2" t="n">
-        <v>714.2412710704069</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N2" t="n">
-        <v>714.2412710704069</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>2181.553498026298</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1762.411034605609</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1696.861354937001</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>277.7880908295411</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C4" t="n">
         <v>959.897665623735</v>
@@ -4488,13 +4488,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2634.504334502149</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1432.709090976214</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1187.317336309627</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>959.897665623735</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>752.2549115535338</v>
+        <v>577.3912258549058</v>
       </c>
       <c r="C5" t="n">
-        <v>314.1124387369571</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D5" t="n">
-        <v>107.3793722531775</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
         <v>77.64503145187676</v>
@@ -4567,19 +4567,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2410.838523748444</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>2005.983069159478</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1586.840605738788</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>1178.554482038442</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
         <v>447.554615037751</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2243.522190013251</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1671.95961582883</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C8" t="n">
-        <v>1637.857547052657</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D8" t="n">
-        <v>1605.988166267505</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>1172.213421425801</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>714.2412710704069</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N8" t="n">
-        <v>2035.921380153963</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O8" t="n">
-        <v>2670.060826431428</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2410.838523748444</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>2005.983069159478</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.464501933276</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1694.218782273333</v>
+        <v>771.4407337121271</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6703941018225</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>458.6703941018225</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055493</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.220527238916</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.31074241336</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E11" t="n">
-        <v>796.5359975716556</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F11" t="n">
-        <v>382.9002538756374</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G11" t="n">
         <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>424.1063803693496</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1258.456672327527</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2333.516638580387</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>2333.516638580387</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>2333.516638580387</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>3313.696305150693</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P11" t="n">
-        <v>4142.00617998409</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.78586499956</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316576</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250403</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661436</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240747</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.6625705404</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,46 +5114,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>396.5477556863889</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>396.5477556863889</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>396.5477556863889</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>396.5477556863889</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>396.5477556863889</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1172.828259930735</v>
+        <v>918.290317906933</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.26654841396</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154828</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E13" t="n">
-        <v>664.63055186622</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279762</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538038</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2710.429709221653</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2464.550262800109</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2396.440216545479</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>2109.48470841591</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1837.458304002202</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1592.066549335614</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>1364.646878649722</v>
+        <v>1110.10893662592</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2188.014873871656</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C14" t="n">
-        <v>1749.872401055079</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D14" t="n">
-        <v>1313.962616229524</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E14" t="n">
-        <v>880.1878713878186</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F14" t="n">
-        <v>452.3204417970264</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G14" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>424.1063803693496</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1258.456672327527</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2333.516638580387</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M14" t="n">
-        <v>2333.516638580387</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N14" t="n">
-        <v>2333.516638580387</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
-        <v>3313.696305150693</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>4142.00617998409</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>4468.437738815723</v>
+        <v>4511.702017087146</v>
       </c>
       <c r="U14" t="n">
-        <v>4209.215436132739</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V14" t="n">
-        <v>3846.598486066566</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W14" t="n">
-        <v>3441.743031477599</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X14" t="n">
-        <v>3022.60056805691</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y14" t="n">
-        <v>2614.314444356563</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,7 +5351,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
         <v>119.8337724793113</v>
@@ -5381,16 +5381,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.828259930735</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.26654841396</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154828</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E16" t="n">
-        <v>664.63055186622</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279762</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5472,16 +5472,16 @@
         <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.458304002202</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1837.458304002202</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.066549335614</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y16" t="n">
-        <v>1364.646878649722</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5503,43 +5503,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5755,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5831,25 +5831,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1090.187678435286</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>917.6259669185112</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>751.7479741200339</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>581.9899703707711</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>405.2829163325273</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>239.691641358355</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2313.799635050031</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>2026.844126920461</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1754.817722506753</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1509.425967840165</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1282.006297154273</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1431.851786213076</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3575.440564248063</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>3402.878852731288</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>3237.000859932811</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E28" t="n">
-        <v>3067.242856183548</v>
+        <v>448.0171411277256</v>
       </c>
       <c r="F28" t="n">
-        <v>2890.535802145304</v>
+        <v>271.3100870894817</v>
       </c>
       <c r="G28" t="n">
-        <v>2724.944527171132</v>
+        <v>105.7188121153094</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>5091.624192244353</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>5077.485521609701</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>4799.052520862807</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>4512.097012733238</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>4240.070608319529</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>3994.678853652942</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>3767.25918296705</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
         <v>1654.847790009657</v>
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,49 +6466,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1039.550377927473</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2114.610344180332</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3271.658179390883</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5091.624192244353</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6946,19 +6946,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,10 +7013,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>296.6079193348953</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>131.016644360723</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>131.016644360723</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7186,40 +7186,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>318.6685343046197</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>153.0772593304474</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>153.0772593304474</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7347,37 +7347,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176952</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2538.261260176952</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2259.828259430057</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.582304216026</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F41" t="n">
-        <v>784.7148746252335</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G41" t="n">
         <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>109.4009987501524</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>943.7512907083303</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2018.81125696119</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M41" t="n">
-        <v>2018.81125696119</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N41" t="n">
-        <v>3144.542240397637</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>4688.504965942684</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.609868960946</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,46 +7484,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>834.3885556154828</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>834.3885556154828</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>834.3885556154828</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E43" t="n">
-        <v>664.63055186622</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>487.9234978279762</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
         <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441784</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7596,25 +7596,25 @@
         <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.664734160825</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055493</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238916</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
         <v>1646.357049057731</v>
@@ -7642,10 +7642,10 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
         <v>529.0247867717716</v>
@@ -7654,46 +7654,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M44" t="n">
-        <v>3144.542240397637</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N44" t="n">
-        <v>3144.542240397637</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126521</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.78586499956</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316576</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250403</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661436</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240747</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.6625705404</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.266136395785</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>771.7044248790099</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>605.8264320805326</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E46" t="n">
-        <v>436.0684283312698</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F46" t="n">
-        <v>259.361374293026</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885368</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.190540178969</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2692.190540178969</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.311093757424</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="U46" t="n">
-        <v>2167.878093010529</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.92258488096</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.896180467251</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.504425800664</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.084755114772</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8002,7 +8002,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8297,22 +8297,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>30.03100411261585</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O8" t="n">
-        <v>640.5448952297625</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.6730111621171</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8710,7 +8710,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>305.8360165328639</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6730111621171</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,22 +9245,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9403,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9418,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>-5.226490029168309e-13</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>507.1059092967429</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>866.2895820207509</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>15.78878730434212</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,16 +11302,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M44" t="n">
-        <v>713.2395913281089</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14.08936903582639</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>110.7913121651032</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>113.8761173587622</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>42.8316354887092</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>125.6469905667128</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>96.5625395927552</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
     </row>
     <row r="17">
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.446659489829642</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>229.4233680290254</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>135.0797604404447</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.4233680290237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>229.4233680290237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>59.30510368402749</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>37.46509486400036</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>55.87832135360372</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>14.50199051495957</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>111.2039336442328</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.01701577190849</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>411.8858435779263</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.146865729424327</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519276.6271455002</v>
+        <v>519276.6271455</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>519276.6271455002</v>
+        <v>519276.6271455</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>553735.3304967724</v>
+        <v>553735.3304967725</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>519276.6271455002</v>
+        <v>519276.6271455</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519276.6271455002</v>
+        <v>519276.6271455</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>402110.4899178063</v>
+      </c>
+      <c r="C2" t="n">
         <v>402110.4899178064</v>
       </c>
-      <c r="C2" t="n">
-        <v>402110.4899178063</v>
-      </c>
       <c r="D2" t="n">
-        <v>402110.4899178065</v>
+        <v>402110.4899178064</v>
       </c>
       <c r="E2" t="n">
-        <v>370553.603241412</v>
+        <v>370553.6032414119</v>
       </c>
       <c r="F2" t="n">
-        <v>370553.603241412</v>
+        <v>370553.6032414118</v>
       </c>
       <c r="G2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="H2" t="n">
         <v>395143.1881030141</v>
@@ -26337,25 +26337,25 @@
         <v>395143.1881030141</v>
       </c>
       <c r="J2" t="n">
+        <v>395143.1881030141</v>
+      </c>
+      <c r="K2" t="n">
+        <v>395143.1881030141</v>
+      </c>
+      <c r="L2" t="n">
         <v>395143.1881030142</v>
       </c>
-      <c r="K2" t="n">
-        <v>395143.1881030142</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>395143.1881030141</v>
       </c>
-      <c r="M2" t="n">
-        <v>395143.1881030142</v>
-      </c>
       <c r="N2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="O2" t="n">
         <v>370553.603241412</v>
       </c>
       <c r="P2" t="n">
-        <v>370553.603241412</v>
+        <v>370553.6032414119</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.753571748</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260779</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356908</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>25961.31084165931</v>
+        <v>25961.3108416593</v>
       </c>
       <c r="F4" t="n">
-        <v>25961.31084165931</v>
+        <v>25961.3108416593</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26444,7 +26444,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="K4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="L4" t="n">
         <v>27684.07875020268</v>
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26559.03346001601</v>
+        <v>-26559.0334600161</v>
       </c>
       <c r="C6" t="n">
         <v>197140.6651240288</v>
       </c>
       <c r="D6" t="n">
-        <v>197140.6651240289</v>
+        <v>197140.6651240288</v>
       </c>
       <c r="E6" t="n">
-        <v>122661.2633456759</v>
+        <v>122556.0737234213</v>
       </c>
       <c r="F6" t="n">
-        <v>273327.0169174239</v>
+        <v>273221.8272951691</v>
       </c>
       <c r="G6" t="n">
-        <v>260651.0615744112</v>
+        <v>260627.8372350284</v>
       </c>
       <c r="H6" t="n">
-        <v>289740.870747019</v>
+        <v>289717.6464076363</v>
       </c>
       <c r="I6" t="n">
-        <v>289740.870747019</v>
+        <v>289717.6464076363</v>
       </c>
       <c r="J6" t="n">
-        <v>115089.5220293129</v>
+        <v>115066.2976899302</v>
       </c>
       <c r="K6" t="n">
-        <v>289740.8707470191</v>
+        <v>289717.6464076363</v>
       </c>
       <c r="L6" t="n">
-        <v>289740.870747019</v>
+        <v>289717.6464076363</v>
       </c>
       <c r="M6" t="n">
-        <v>163989.7824113282</v>
+        <v>163966.5580719456</v>
       </c>
       <c r="N6" t="n">
-        <v>289740.870747019</v>
+        <v>289717.6464076362</v>
       </c>
       <c r="O6" t="n">
-        <v>273327.0169174239</v>
+        <v>273221.8272951692</v>
       </c>
       <c r="P6" t="n">
-        <v>273327.0169174239</v>
+        <v>273221.8272951691</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990743</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990743</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>71.7019632559543</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.3090795914214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>5.132153028922346</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.742286579561551</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>226.8849511583581</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27669,13 +27669,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>229.514940522278</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>110.5076572325426</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>55.07653710780755</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34722,7 +34722,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35017,22 +35017,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35114,7 +35114,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>30.03100411261585</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O8" t="n">
-        <v>640.5448952297625</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.6730111621171</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35430,7 +35430,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>305.8360165328639</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6730111621171</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36123,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36138,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>-1.358033040607337e-13</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>507.1059092967429</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36913,7 +36913,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>866.2895820207509</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37326,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37715,7 +37715,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512984</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>15.78878730434212</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38022,16 +38022,16 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M44" t="n">
-        <v>713.2395913281089</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
